--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1915.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1915.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.209390494558005</v>
+        <v>1.386581420898438</v>
       </c>
       <c r="B1">
-        <v>3.058851947274113</v>
+        <v>1.541714668273926</v>
       </c>
       <c r="C1">
-        <v>2.195708600610914</v>
+        <v>5.142643928527832</v>
       </c>
       <c r="D1">
-        <v>2.010064680361678</v>
+        <v>2.737042188644409</v>
       </c>
       <c r="E1">
-        <v>1.854624596572263</v>
+        <v>0.9275162220001221</v>
       </c>
     </row>
   </sheetData>
